--- a/projects/test_emerging_tech/data/scenarios_test_tech.xlsx
+++ b/projects/test_emerging_tech/data/scenarios_test_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADABE06B-E8B0-4EE0-BB90-C3307B7E0715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50587DA3-E8BB-438B-A683-24F62B300AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="4860" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
   <si>
     <t>Scenario</t>
   </si>
@@ -466,6 +466,30 @@
   </si>
   <si>
     <t>BIO_TO_CCS</t>
+  </si>
+  <si>
+    <t>ocaes</t>
+  </si>
+  <si>
+    <t>sco2</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>E_OCAES</t>
+  </si>
+  <si>
+    <t>E_SCO2</t>
+  </si>
+  <si>
+    <t>NATGAS_TO_CCS</t>
+  </si>
+  <si>
+    <t>pv_res</t>
+  </si>
+  <si>
+    <t>E_PV_DIST_RES</t>
   </si>
 </sst>
 </file>
@@ -539,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -561,6 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,33 +1012,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.21875" customWidth="1"/>
+    <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1026,8 +1063,20 @@
       <c r="D2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1040,11 +1089,21 @@
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1057,11 +1116,21 @@
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1074,8 +1143,20 @@
       <c r="D5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1088,8 +1169,20 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1102,8 +1195,20 @@
       <c r="D7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -1116,8 +1221,20 @@
       <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
@@ -1130,8 +1247,20 @@
       <c r="D9" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="14">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14">
+        <v>20</v>
+      </c>
+      <c r="G9" s="14">
+        <v>20</v>
+      </c>
+      <c r="H9" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
@@ -1142,6 +1271,18 @@
         <v>1000</v>
       </c>
       <c r="D10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="14">
         <v>1000</v>
       </c>
     </row>
@@ -1153,223 +1294,346 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1381,70 +1645,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1454,40 +1746,58 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1498,33 +1808,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1537,8 +1859,20 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1551,8 +1885,20 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1565,8 +1911,20 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1579,8 +1937,20 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1593,61 +1963,96 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
         <v>26</v>
       </c>
     </row>

--- a/projects/test_emerging_tech/data/scenarios_test_tech.xlsx
+++ b/projects/test_emerging_tech/data/scenarios_test_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50587DA3-E8BB-438B-A683-24F62B300AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376C494D-F389-42F2-827F-5D0EB51C075A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="110">
   <si>
     <t>Scenario</t>
   </si>
@@ -92,9 +92,6 @@
     <t>ED_SOLPV</t>
   </si>
   <si>
-    <t>ED_WIND</t>
-  </si>
-  <si>
     <t>include_baseload</t>
   </si>
   <si>
@@ -171,21 +168,6 @@
   </si>
   <si>
     <t>DIST_COND</t>
-  </si>
-  <si>
-    <t>COAL_TAX</t>
-  </si>
-  <si>
-    <t>DSL_TAX</t>
-  </si>
-  <si>
-    <t>MSW_LF_TAX</t>
-  </si>
-  <si>
-    <t>OIL_TAX</t>
-  </si>
-  <si>
-    <t>NATGAS_TAX</t>
   </si>
   <si>
     <t>EC_DSL_CC</t>
@@ -490,6 +472,88 @@
   </si>
   <si>
     <t>E_PV_DIST_RES</t>
+  </si>
+  <si>
+    <t>include_min_capacity_limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_emission_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the constraint from the 'Emission' sheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include_min_capacity_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - indicate 'Y' to include the constraint from the 'MinCapacity' sheet</t>
+    </r>
+  </si>
+  <si>
+    <t>NATGAS_TAX_OFF</t>
+  </si>
+  <si>
+    <t>EF_WIND</t>
+  </si>
+  <si>
+    <t>COAL_TAX_ON</t>
+  </si>
+  <si>
+    <t>DSL_TAX_ON</t>
+  </si>
+  <si>
+    <t>MSW_LF_TAX_ON</t>
+  </si>
+  <si>
+    <t>OIL_TAX_ON</t>
+  </si>
+  <si>
+    <t>NATGAS_TAX_ON</t>
+  </si>
+  <si>
+    <t>COAL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>DSL_TAX_OFF</t>
+  </si>
+  <si>
+    <t>MSW_LF_TAX_OFF</t>
+  </si>
+  <si>
+    <t>OIL_TAX_OFF</t>
   </si>
 </sst>
 </file>
@@ -563,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -585,12 +649,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -866,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BDBC8-04C0-4C73-8BBF-CE8A7DD9E8F0}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,10 +972,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -895,113 +987,125 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1012,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,115 +1128,115 @@
     <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1158,135 +1262,166 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>39</v>
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="14">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14">
-        <v>20</v>
-      </c>
-      <c r="E9" s="14">
-        <v>20</v>
-      </c>
-      <c r="F9" s="14">
-        <v>20</v>
-      </c>
-      <c r="G9" s="14">
-        <v>20</v>
-      </c>
-      <c r="H9" s="14">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="14">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14">
         <v>1000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>1000</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>1000</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>1000</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <v>1000</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <v>1000</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1297,7 +1432,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,338 +1441,355 @@
     <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
+      <c r="A14" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
+      <c r="A16" t="s">
+        <v>55</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
+      <c r="A18" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
+      <c r="A20" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
+      <c r="A30" t="s">
+        <v>100</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1"/>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1648,7 +1800,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1657,406 +1809,456 @@
     <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
+      <c r="A3" t="s">
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>93</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
